--- a/Output/SAMPLE_REDUCTION_STEPS_PERSONALITY.xlsx
+++ b/Output/SAMPLE_REDUCTION_STEPS_PERSONALITY.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="31">
   <si>
     <t>data_prep_step</t>
   </si>
@@ -83,10 +83,16 @@
     <t>binary_nolags</t>
   </si>
   <si>
+    <t>binary_all_int_poly</t>
+  </si>
+  <si>
     <t>multi_all</t>
   </si>
   <si>
     <t>multi_nolags</t>
+  </si>
+  <si>
+    <t>multi_all_int_poly</t>
   </si>
   <si>
     <t>controls_same_outcome</t>
@@ -213,7 +219,7 @@
       </c>
       <c r="B3"/>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -237,7 +243,7 @@
       </c>
       <c r="B4"/>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -261,7 +267,7 @@
       </c>
       <c r="B5"/>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -285,7 +291,7 @@
       </c>
       <c r="B6"/>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -309,7 +315,7 @@
       </c>
       <c r="B7"/>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -333,7 +339,7 @@
       </c>
       <c r="B8"/>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -357,13 +363,13 @@
       </c>
       <c r="B9"/>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
@@ -385,16 +391,16 @@
       </c>
       <c r="B10"/>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G10" t="n">
         <v>5218.0</v>
@@ -415,16 +421,16 @@
       </c>
       <c r="B11"/>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G11" t="n">
         <v>5218.0</v>
@@ -447,16 +453,16 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" t="n">
         <v>5218.0</v>
@@ -468,7 +474,7 @@
         <v>533.0</v>
       </c>
       <c r="J12" t="n" s="2">
-        <v>45013.49397822778</v>
+        <v>45016.44736511295</v>
       </c>
     </row>
     <row r="13">
@@ -479,16 +485,16 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G13" t="n">
         <v>5218.0</v>
@@ -500,7 +506,7 @@
         <v>419.0</v>
       </c>
       <c r="J13" t="n" s="2">
-        <v>45013.49399605783</v>
+        <v>45016.447382940634</v>
       </c>
     </row>
     <row r="14">
@@ -511,16 +517,16 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G14" t="n">
         <v>5218.0</v>
@@ -529,10 +535,10 @@
         <v>11211.0</v>
       </c>
       <c r="I14" t="n">
-        <v>537.0</v>
+        <v>40804.0</v>
       </c>
       <c r="J14" t="n" s="2">
-        <v>45013.494022261875</v>
+        <v>45016.448366390265</v>
       </c>
     </row>
     <row r="15">
@@ -543,28 +549,92 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5218.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>11211.0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>537.0</v>
+      </c>
+      <c r="J15" t="n" s="2">
+        <v>45016.44838751201</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5218.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>11211.0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>424.0</v>
+      </c>
+      <c r="J16" t="n" s="2">
+        <v>45016.44839460661</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
         <v>26</v>
       </c>
-      <c r="E15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" t="n">
-        <v>5218.0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>11211.0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>424.0</v>
-      </c>
-      <c r="J15" t="n" s="2">
-        <v>45013.49403423871</v>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5218.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>11211.0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>40808.0</v>
+      </c>
+      <c r="J17" t="n" s="2">
+        <v>45016.44968821267</v>
       </c>
     </row>
   </sheetData>
